--- a/daoju001/src/main/webapp/img/logo/清单.xlsx
+++ b/daoju001/src/main/webapp/img/logo/清单.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="2715" windowWidth="13860" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="119">
   <si>
     <t>品牌名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -371,14 +372,134 @@
   </si>
   <si>
     <t>使用名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INGERSOLL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>克洛伊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝帜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铣星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REGO-FIX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山特维克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARGUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YAMAWA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安威</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大昭和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WIDIA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WALTER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAFETY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弗雷萨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钴领</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肯纳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿叶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名古屋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黛杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三菱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斯特拉姆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰珂洛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特固克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雄克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊斯卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正河源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>株洲钻石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住友</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -456,11 +577,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -534,6 +660,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -568,6 +695,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -743,22 +871,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.625" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>88</v>
@@ -776,7 +904,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -796,7 +924,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -816,7 +944,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -834,12 +962,12 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
@@ -852,12 +980,12 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>15</v>
@@ -870,12 +998,12 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>17</v>
@@ -888,7 +1016,7 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -906,7 +1034,7 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -924,7 +1052,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -942,12 +1070,12 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>24</v>
@@ -960,7 +1088,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -978,7 +1106,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -994,7 +1122,7 @@
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -1014,7 +1142,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -1030,12 +1158,12 @@
       </c>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>32</v>
@@ -1046,12 +1174,12 @@
       </c>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>34</v>
@@ -1064,12 +1192,12 @@
       </c>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>37</v>
@@ -1084,12 +1212,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>40</v>
@@ -1102,12 +1230,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>41</v>
@@ -1122,12 +1250,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>43</v>
@@ -1140,12 +1268,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>46</v>
+        <v>99</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>45</v>
@@ -1160,12 +1288,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>47</v>
@@ -1178,12 +1306,12 @@
       </c>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>49</v>
@@ -1196,12 +1324,12 @@
       </c>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>51</v>
@@ -1212,12 +1340,12 @@
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>54</v>
+        <v>103</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>53</v>
@@ -1230,12 +1358,12 @@
       </c>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>55</v>
@@ -1250,12 +1378,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>57</v>
@@ -1268,12 +1396,12 @@
       </c>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>59</v>
@@ -1286,12 +1414,12 @@
       </c>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>61</v>
@@ -1302,12 +1430,12 @@
       </c>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>63</v>
@@ -1320,12 +1448,12 @@
       </c>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>65</v>
@@ -1338,12 +1466,12 @@
       </c>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" s="2">
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>67</v>
@@ -1356,12 +1484,12 @@
       </c>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" s="2">
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>69</v>
@@ -1374,12 +1502,12 @@
       </c>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" s="2">
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>71</v>
@@ -1392,12 +1520,12 @@
       </c>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" s="2">
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>73</v>
@@ -1412,12 +1540,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" s="2">
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>75</v>
@@ -1430,12 +1558,12 @@
       </c>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" s="2">
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>77</v>
@@ -1450,12 +1578,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" s="2">
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>79</v>
@@ -1468,12 +1596,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" s="2">
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>80</v>
@@ -1484,12 +1612,12 @@
       </c>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" s="2">
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>81</v>
@@ -1510,12 +1638,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1524,12 +1652,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
